--- a/albanian verb morphomes.xlsx
+++ b/albanian verb morphomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e21b893125bc2b3c/Desktop/Research/Albanian-diachrony/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e21b893125bc2b3c/Desktop/Research/Albanian-diachrony/Albanian-CFR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="623" documentId="8_{46F76D9F-800C-41FE-9176-9604C3D95A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{613868CB-7D7F-4700-A3E2-30D85337214D}"/>
+  <xr:revisionPtr revIDLastSave="624" documentId="8_{46F76D9F-800C-41FE-9176-9604C3D95A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02BB69FD-ABC2-4D5E-8F66-CEC85FD29041}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{E097A9BD-287E-4EEE-825C-49D83BCD6D7C}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7350" activeTab="1" xr2:uid="{E097A9BD-287E-4EEE-825C-49D83BCD6D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="paradigms" sheetId="1" r:id="rId1"/>
@@ -609,9 +609,6 @@
     <t>œ</t>
   </si>
   <si>
-    <t>BE.1sg suffix</t>
-  </si>
-  <si>
     <t>PIE -o-χ, via ō</t>
   </si>
   <si>
@@ -841,6 +838,9 @@
   </si>
   <si>
     <t>r1-ntə</t>
+  </si>
+  <si>
+    <t>BE.1sg suffix?</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8D311B-37A9-4B8D-B25F-D91CB3423B21}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -1828,30 +1828,30 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2384,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50165CA7-CB23-48DA-8DAF-424F2C2BB5F8}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2457,21 +2457,21 @@
         <v>189</v>
       </c>
       <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
         <v>190</v>
-      </c>
-      <c r="C7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
         <v>220</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>221</v>
-      </c>
-      <c r="C8" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2487,73 +2487,73 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
         <v>192</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>193</v>
-      </c>
-      <c r="C10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
         <v>195</v>
-      </c>
-      <c r="B11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" t="s">
         <v>259</v>
-      </c>
-      <c r="B12" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
         <v>197</v>
-      </c>
-      <c r="B13" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" t="s">
         <v>199</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" t="s">
         <v>205</v>
       </c>
-      <c r="B15" t="s">
-        <v>206</v>
-      </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2561,10 +2561,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2602,79 +2602,79 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s">
         <v>210</v>
-      </c>
-      <c r="C21" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" t="s">
         <v>208</v>
-      </c>
-      <c r="B22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" t="s">
         <v>215</v>
-      </c>
-      <c r="C23" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" t="s">
         <v>213</v>
       </c>
-      <c r="B24" t="s">
-        <v>214</v>
-      </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" t="s">
         <v>223</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>224</v>
-      </c>
-      <c r="C25" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" t="s">
         <v>226</v>
-      </c>
-      <c r="B26" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" t="s">
         <v>229</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>230</v>
-      </c>
-      <c r="C27" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -2682,95 +2682,95 @@
         <v>179</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" t="s">
         <v>234</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>235</v>
-      </c>
-      <c r="C29" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" t="s">
         <v>237</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>238</v>
-      </c>
-      <c r="C30" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" t="s">
         <v>244</v>
-      </c>
-      <c r="B31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C31" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" t="s">
         <v>241</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>242</v>
-      </c>
-      <c r="C32" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" t="s">
         <v>247</v>
-      </c>
-      <c r="B33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" t="s">
         <v>251</v>
       </c>
-      <c r="B36" t="s">
-        <v>252</v>
-      </c>
       <c r="C36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" t="s">
         <v>253</v>
-      </c>
-      <c r="B37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C37" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">

--- a/albanian verb morphomes.xlsx
+++ b/albanian verb morphomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e21b893125bc2b3c/Desktop/Research/Albanian-diachrony/Albanian-CFR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="624" documentId="8_{46F76D9F-800C-41FE-9176-9604C3D95A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02BB69FD-ABC2-4D5E-8F66-CEC85FD29041}"/>
+  <xr:revisionPtr revIDLastSave="641" documentId="8_{46F76D9F-800C-41FE-9176-9604C3D95A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C205DEB-39F8-4E2A-B0CE-2F47496D741B}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7350" activeTab="1" xr2:uid="{E097A9BD-287E-4EEE-825C-49D83BCD6D7C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E097A9BD-287E-4EEE-825C-49D83BCD6D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="paradigms" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="279">
   <si>
     <t>pres.ind</t>
   </si>
@@ -105,9 +105,6 @@
     <t>ɛσ-</t>
   </si>
   <si>
-    <t>éσam</t>
-  </si>
-  <si>
     <t>eσ</t>
   </si>
   <si>
@@ -546,9 +543,6 @@
     <t>PIE ʔes-om (2ndary?). Cf Latin sum (&lt;Old Lat esom); Sanskrit asam</t>
   </si>
   <si>
-    <t>əσam</t>
-  </si>
-  <si>
     <t>1sg impf suffix. derived from éσam above?</t>
   </si>
   <si>
@@ -841,6 +835,45 @@
   </si>
   <si>
     <t>BE.1sg suffix?</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>tonic vowel to a by i-mutation</t>
+  </si>
+  <si>
+    <t>éσam  &gt; áhα</t>
+  </si>
+  <si>
+    <t>eσám &gt; ɩ(h)á, ə(h)a</t>
+  </si>
+  <si>
+    <t>aor2</t>
+  </si>
+  <si>
+    <t>r4=r1(-stres)-és-</t>
+  </si>
+  <si>
+    <t>r4-əσám</t>
+  </si>
+  <si>
+    <t>r4-éσ</t>
+  </si>
+  <si>
+    <t>r4-∅</t>
+  </si>
+  <si>
+    <t>r4-əmə</t>
+  </si>
+  <si>
+    <t>r4-əθə</t>
+  </si>
+  <si>
+    <t>r4-əntə</t>
+  </si>
+  <si>
+    <t>r4-(V?)nə</t>
   </si>
 </sst>
 </file>
@@ -947,6 +980,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1268,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8D311B-37A9-4B8D-B25F-D91CB3423B21}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1288,7 +1325,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1309,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1317,25 +1354,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1343,93 +1380,93 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -1450,7 +1487,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1458,25 +1495,25 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1484,87 +1521,87 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -1585,7 +1622,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1593,25 +1630,25 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1619,87 +1656,87 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
@@ -1720,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1728,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="H24" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1754,112 +1791,112 @@
         <v>4</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1867,25 +1904,25 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="G39" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1893,84 +1930,84 @@
         <v>4</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="I42" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1993,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2001,25 +2038,25 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F47" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2027,81 +2064,81 @@
         <v>4</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
@@ -2122,7 +2159,7 @@
         <v>7</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2130,25 +2167,25 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2156,81 +2193,105 @@
         <v>4</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2240,17 +2301,22 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
@@ -2271,7 +2337,7 @@
         <v>7</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2279,25 +2345,25 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2305,73 +2371,73 @@
         <v>4</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="H69" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" s="6" t="s">
+      <c r="F70" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2382,178 +2448,184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50165CA7-CB23-48DA-8DAF-424F2C2BB5F8}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
     <col min="2" max="2" width="38.453125" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
         <v>180</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>181</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
         <v>185</v>
       </c>
-      <c r="C6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>189</v>
       </c>
-      <c r="B7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>191</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>192</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>194</v>
       </c>
-      <c r="B11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>196</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
         <v>198</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" t="s">
         <v>199</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2561,10 +2633,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2572,205 +2644,205 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s">
         <v>172</v>
       </c>
-      <c r="B20" t="s">
-        <v>174</v>
-      </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" t="s">
         <v>207</v>
       </c>
-      <c r="B22" t="s">
-        <v>209</v>
-      </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" t="s">
         <v>222</v>
-      </c>
-      <c r="B25" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" t="s">
         <v>225</v>
       </c>
-      <c r="B26" t="s">
-        <v>227</v>
-      </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
         <v>228</v>
-      </c>
-      <c r="B27" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" t="s">
         <v>233</v>
-      </c>
-      <c r="B29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" t="s">
         <v>236</v>
-      </c>
-      <c r="B30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C30" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" t="s">
         <v>240</v>
-      </c>
-      <c r="B32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" t="s">
         <v>245</v>
-      </c>
-      <c r="C33" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" t="s">
         <v>252</v>
       </c>
-      <c r="B37" t="s">
-        <v>254</v>
-      </c>
       <c r="C37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">

--- a/albanian verb morphomes.xlsx
+++ b/albanian verb morphomes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="641" documentId="8_{46F76D9F-800C-41FE-9176-9604C3D95A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C205DEB-39F8-4E2A-B0CE-2F47496D741B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E097A9BD-287E-4EEE-825C-49D83BCD6D7C}"/>
+    <workbookView minimized="1" xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{E097A9BD-287E-4EEE-825C-49D83BCD6D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="paradigms" sheetId="1" r:id="rId1"/>
@@ -980,10 +980,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1305,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8D311B-37A9-4B8D-B25F-D91CB3423B21}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:C63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2450,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50165CA7-CB23-48DA-8DAF-424F2C2BB5F8}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
